--- a/Commons/InventoryWebApp/src/main/webapp/WEB-INF/Templates/库存统计导出模板.xlsx
+++ b/Commons/InventoryWebApp/src/main/webapp/WEB-INF/Templates/库存统计导出模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24210" windowHeight="12420" activeTab="1"/>
+    <workbookView windowWidth="24225" windowHeight="12420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="入库统计" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>入库统计</t>
   </si>
@@ -53,7 +53,19 @@
     <t>出库统计</t>
   </si>
   <si>
+    <t>项目名称</t>
+  </si>
+  <si>
+    <t>价格</t>
+  </si>
+  <si>
     <t>{{$fe:outlist t.area</t>
+  </si>
+  <si>
+    <t>t.projectName</t>
+  </si>
+  <si>
+    <t>t.price</t>
   </si>
 </sst>
 </file>
@@ -1083,22 +1095,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="23.375" customWidth="1"/>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
-    <col min="3" max="3" width="27.75" customWidth="1"/>
-    <col min="4" max="4" width="24.375" customWidth="1"/>
-    <col min="5" max="5" width="33.875" customWidth="1"/>
+    <col min="1" max="2" width="23.375" customWidth="1"/>
+    <col min="3" max="3" width="22.125" customWidth="1"/>
+    <col min="4" max="5" width="27.75" customWidth="1"/>
+    <col min="6" max="6" width="24.375" customWidth="1"/>
+    <col min="7" max="7" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1106,44 +1118,58 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Commons/InventoryWebApp/src/main/webapp/WEB-INF/Templates/库存统计导出模板.xlsx
+++ b/Commons/InventoryWebApp/src/main/webapp/WEB-INF/Templates/库存统计导出模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12420" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="入库统计" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>入库统计</t>
   </si>
@@ -59,6 +59,9 @@
     <t>价格</t>
   </si>
   <si>
+    <t>单位</t>
+  </si>
+  <si>
     <t>{{$fe:outlist t.area</t>
   </si>
   <si>
@@ -66,6 +69,12 @@
   </si>
   <si>
     <t>t.price</t>
+  </si>
+  <si>
+    <t>t.num</t>
+  </si>
+  <si>
+    <t>t.unit}}</t>
   </si>
 </sst>
 </file>
@@ -696,7 +705,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -705,6 +714,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1041,13 +1056,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
@@ -1095,13 +1110,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="23.375" customWidth="1"/>
     <col min="3" max="3" width="22.125" customWidth="1"/>
@@ -1110,7 +1125,7 @@
     <col min="7" max="7" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1120,8 +1135,9 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1143,13 +1159,16 @@
       <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
@@ -1158,18 +1177,21 @@
         <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Commons/InventoryWebApp/src/main/webapp/WEB-INF/Templates/库存统计导出模板.xlsx
+++ b/Commons/InventoryWebApp/src/main/webapp/WEB-INF/Templates/库存统计导出模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12390" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="入库统计" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>入库统计</t>
   </si>
@@ -26,6 +26,9 @@
     <t>设备名称</t>
   </si>
   <si>
+    <t>项目编号</t>
+  </si>
+  <si>
     <t>型号</t>
   </si>
   <si>
@@ -39,6 +42,9 @@
   </si>
   <si>
     <t>t.stockName</t>
+  </si>
+  <si>
+    <t>t.itemNo</t>
   </si>
   <si>
     <t>t.modelName</t>
@@ -705,7 +711,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -714,12 +720,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1040,31 +1040,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="28.75" customWidth="1"/>
-    <col min="2" max="2" width="27.375" customWidth="1"/>
-    <col min="3" max="3" width="23.25" customWidth="1"/>
-    <col min="4" max="4" width="27.125" customWidth="1"/>
-    <col min="5" max="5" width="25.625" customWidth="1"/>
+    <col min="2" max="3" width="27.375" customWidth="1"/>
+    <col min="4" max="4" width="23.25" customWidth="1"/>
+    <col min="5" max="5" width="27.125" customWidth="1"/>
+    <col min="6" max="6" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1080,27 +1081,33 @@
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1110,24 +1117,25 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="2" width="23.375" customWidth="1"/>
-    <col min="3" max="3" width="22.125" customWidth="1"/>
-    <col min="4" max="5" width="27.75" customWidth="1"/>
-    <col min="6" max="6" width="24.375" customWidth="1"/>
-    <col min="7" max="7" width="33.875" customWidth="1"/>
+    <col min="1" max="3" width="23.375" customWidth="1"/>
+    <col min="4" max="4" width="22.125" customWidth="1"/>
+    <col min="5" max="6" width="27.75" customWidth="1"/>
+    <col min="7" max="7" width="24.375" customWidth="1"/>
+    <col min="8" max="8" width="33.875" customWidth="1"/>
+    <col min="9" max="9" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1136,62 +1144,69 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>14</v>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Commons/InventoryWebApp/src/main/webapp/WEB-INF/Templates/库存统计导出模板.xlsx
+++ b/Commons/InventoryWebApp/src/main/webapp/WEB-INF/Templates/库存统计导出模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="28125" windowHeight="12360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="入库统计" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>入库统计</t>
   </si>
@@ -38,6 +38,21 @@
     <t>数量</t>
   </si>
   <si>
+    <t>单价</t>
+  </si>
+  <si>
+    <t>单位</t>
+  </si>
+  <si>
+    <t>采购发票号</t>
+  </si>
+  <si>
+    <t>付款单号</t>
+  </si>
+  <si>
+    <t>供应商</t>
+  </si>
+  <si>
     <t>{{$fe:inlist t.area</t>
   </si>
   <si>
@@ -53,7 +68,22 @@
     <t>t.depotTime</t>
   </si>
   <si>
-    <t>t.num}}</t>
+    <t>t.num</t>
+  </si>
+  <si>
+    <t>t.price</t>
+  </si>
+  <si>
+    <t>t.unit</t>
+  </si>
+  <si>
+    <t>t.purchaseInvoiceNo</t>
+  </si>
+  <si>
+    <t>t.paymentOrderNo</t>
+  </si>
+  <si>
+    <t>t.supplier}}</t>
   </si>
   <si>
     <t>出库统计</t>
@@ -65,7 +95,13 @@
     <t>价格</t>
   </si>
   <si>
-    <t>单位</t>
+    <t>销售发票号</t>
+  </si>
+  <si>
+    <t>收款单号</t>
+  </si>
+  <si>
+    <t>客户</t>
   </si>
   <si>
     <t>{{$fe:outlist t.area</t>
@@ -74,13 +110,13 @@
     <t>t.projectName</t>
   </si>
   <si>
-    <t>t.price</t>
-  </si>
-  <si>
-    <t>t.num</t>
-  </si>
-  <si>
-    <t>t.unit}}</t>
+    <t>t.sailesInvoiceNo</t>
+  </si>
+  <si>
+    <t>t.receiptNo</t>
+  </si>
+  <si>
+    <t>t.customer}}</t>
   </si>
 </sst>
 </file>
@@ -440,7 +476,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -452,6 +488,43 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -572,7 +645,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -602,7 +675,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -620,28 +693,28 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -650,10 +723,10 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -711,14 +784,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1040,74 +1122,114 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="28.75" customWidth="1"/>
-    <col min="2" max="3" width="27.375" customWidth="1"/>
-    <col min="4" max="4" width="23.25" customWidth="1"/>
-    <col min="5" max="5" width="27.125" customWidth="1"/>
-    <col min="6" max="6" width="25.625" customWidth="1"/>
+    <col min="1" max="1" width="22.75" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="7" max="7" width="14.75" customWidth="1"/>
+    <col min="9" max="9" width="14.375" customWidth="1"/>
+    <col min="10" max="10" width="20.375" customWidth="1"/>
+    <col min="11" max="11" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="G2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1117,96 +1239,121 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="3" width="23.375" customWidth="1"/>
+    <col min="1" max="2" width="23.375" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
     <col min="4" max="4" width="22.125" customWidth="1"/>
-    <col min="5" max="6" width="27.75" customWidth="1"/>
-    <col min="7" max="7" width="24.375" customWidth="1"/>
-    <col min="8" max="8" width="33.875" customWidth="1"/>
-    <col min="9" max="9" width="23.75" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="10.25" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="7.625" customWidth="1"/>
+    <col min="10" max="10" width="21.125" customWidth="1"/>
+    <col min="12" max="12" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>21</v>
+      <c r="J3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Commons/InventoryWebApp/src/main/webapp/WEB-INF/Templates/库存统计导出模板.xlsx
+++ b/Commons/InventoryWebApp/src/main/webapp/WEB-INF/Templates/库存统计导出模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12360" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="入库统计" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>入库统计</t>
   </si>
@@ -44,6 +44,9 @@
     <t>单位</t>
   </si>
   <si>
+    <t>采购付款申请单编码</t>
+  </si>
+  <si>
     <t>采购发票号</t>
   </si>
   <si>
@@ -98,6 +101,9 @@
     <t>销售发票号</t>
   </si>
   <si>
+    <t>销售发票开具日期</t>
+  </si>
+  <si>
     <t>收款单号</t>
   </si>
   <si>
@@ -111,6 +117,9 @@
   </si>
   <si>
     <t>t.sailesInvoiceNo</t>
+  </si>
+  <si>
+    <t>t.sailesInvoiceDate</t>
   </si>
   <si>
     <t>t.receiptNo</t>
@@ -784,7 +793,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -799,9 +808,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1122,10 +1128,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1137,131 +1143,15 @@
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="11.75" customWidth="1"/>
     <col min="7" max="7" width="14.75" customWidth="1"/>
-    <col min="9" max="9" width="14.375" customWidth="1"/>
-    <col min="10" max="10" width="20.375" customWidth="1"/>
-    <col min="11" max="11" width="18.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
-  <cols>
-    <col min="1" max="2" width="23.375" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="4" width="22.125" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="10.25" customWidth="1"/>
-    <col min="7" max="7" width="14.125" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="7.625" customWidth="1"/>
-    <col min="10" max="10" width="21.125" customWidth="1"/>
-    <col min="12" max="12" width="28.75" customWidth="1"/>
+    <col min="9" max="9" width="27.625" customWidth="1"/>
+    <col min="10" max="10" width="14.375" customWidth="1"/>
+    <col min="11" max="11" width="20.375" customWidth="1"/>
+    <col min="12" max="12" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1280,75 +1170,75 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>28</v>
+        <v>9</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>33</v>
+        <v>15</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1358,4 +1248,135 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="2" width="23.375" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="22.125" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="10.25" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="7.625" customWidth="1"/>
+    <col min="10" max="11" width="21.125" customWidth="1"/>
+    <col min="13" max="13" width="28.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Commons/InventoryWebApp/src/main/webapp/WEB-INF/Templates/库存统计导出模板.xlsx
+++ b/Commons/InventoryWebApp/src/main/webapp/WEB-INF/Templates/库存统计导出模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="入库统计" sheetId="1" r:id="rId1"/>
@@ -1256,7 +1256,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>

--- a/Commons/InventoryWebApp/src/main/webapp/WEB-INF/Templates/库存统计导出模板.xlsx
+++ b/Commons/InventoryWebApp/src/main/webapp/WEB-INF/Templates/库存统计导出模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="入库统计" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>入库统计</t>
   </si>
@@ -47,6 +47,9 @@
     <t>采购付款申请单编码</t>
   </si>
   <si>
+    <t>采购付款申请单编码(新)</t>
+  </si>
+  <si>
     <t>采购发票号</t>
   </si>
   <si>
@@ -78,6 +81,9 @@
   </si>
   <si>
     <t>t.unit</t>
+  </si>
+  <si>
+    <t>t.newItemNo</t>
   </si>
   <si>
     <t>t.purchaseInvoiceNo</t>
@@ -1128,10 +1134,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1144,12 +1150,13 @@
     <col min="6" max="6" width="11.75" customWidth="1"/>
     <col min="7" max="7" width="14.75" customWidth="1"/>
     <col min="9" max="9" width="27.625" customWidth="1"/>
-    <col min="10" max="10" width="14.375" customWidth="1"/>
-    <col min="11" max="11" width="20.375" customWidth="1"/>
-    <col min="12" max="12" width="18.25" customWidth="1"/>
+    <col min="10" max="10" width="30.25" customWidth="1"/>
+    <col min="11" max="11" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="20.375" customWidth="1"/>
+    <col min="13" max="13" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1163,9 +1170,10 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="4"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1202,48 +1210,54 @@
       <c r="L2" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="M2" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="J3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1255,7 +1269,7 @@
   <sheetPr/>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -1275,7 +1289,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1295,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
@@ -1307,7 +1321,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>5</v>
@@ -1319,57 +1333,57 @@
         <v>8</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="I3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Commons/InventoryWebApp/src/main/webapp/WEB-INF/Templates/库存统计导出模板.xlsx
+++ b/Commons/InventoryWebApp/src/main/webapp/WEB-INF/Templates/库存统计导出模板.xlsx
@@ -58,9 +58,6 @@
     <t>采购发票号</t>
   </si>
   <si>
-    <t>付款单号</t>
-  </si>
-  <si>
     <t>供应商</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
   </si>
   <si>
     <t>销售发票开具日期</t>
-  </si>
-  <si>
-    <t>收款单号</t>
   </si>
   <si>
     <t>客户</t>
@@ -148,6 +142,14 @@
   </si>
   <si>
     <t>t.purchaseInvoiceDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行付款日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行收款日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,7 +540,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -611,57 +613,57 @@
         <v>11</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +680,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -693,12 +695,13 @@
     <col min="9" max="9" width="7.625" customWidth="1"/>
     <col min="10" max="11" width="21.125" customWidth="1"/>
     <col min="12" max="12" width="24.875" customWidth="1"/>
+    <col min="13" max="13" width="13.375" customWidth="1"/>
     <col min="14" max="14" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -719,7 +722,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -731,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>5</v>
@@ -743,63 +746,63 @@
         <v>8</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Commons/InventoryWebApp/src/main/webapp/WEB-INF/Templates/库存统计导出模板.xlsx
+++ b/Commons/InventoryWebApp/src/main/webapp/WEB-INF/Templates/库存统计导出模板.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>入库统计</t>
   </si>
@@ -150,6 +150,35 @@
   </si>
   <si>
     <t>银行收款日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库总金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.inprice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售总金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sailPrice</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -157,7 +186,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +197,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -246,7 +283,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -261,6 +298,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -537,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -553,14 +593,14 @@
     <col min="6" max="6" width="11.75" customWidth="1"/>
     <col min="7" max="7" width="14.75" customWidth="1"/>
     <col min="9" max="9" width="27.625" customWidth="1"/>
-    <col min="10" max="10" width="30.25" customWidth="1"/>
-    <col min="11" max="11" width="29.5" customWidth="1"/>
-    <col min="12" max="12" width="20.875" customWidth="1"/>
-    <col min="13" max="13" width="20.375" customWidth="1"/>
-    <col min="14" max="14" width="18.25" customWidth="1"/>
+    <col min="10" max="11" width="30.25" customWidth="1"/>
+    <col min="12" max="12" width="29.5" customWidth="1"/>
+    <col min="13" max="13" width="20.875" customWidth="1"/>
+    <col min="14" max="14" width="20.375" customWidth="1"/>
+    <col min="15" max="15" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -576,9 +616,10 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
-      <c r="N1" s="4"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -610,19 +651,22 @@
         <v>10</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -654,21 +698,24 @@
         <v>21</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -677,10 +724,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -693,13 +740,13 @@
     <col min="7" max="7" width="14.125" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="7.625" customWidth="1"/>
-    <col min="10" max="11" width="21.125" customWidth="1"/>
-    <col min="12" max="12" width="24.875" customWidth="1"/>
-    <col min="13" max="13" width="13.375" customWidth="1"/>
-    <col min="14" max="14" width="28.75" customWidth="1"/>
+    <col min="10" max="12" width="21.125" customWidth="1"/>
+    <col min="13" max="13" width="24.875" customWidth="1"/>
+    <col min="14" max="14" width="13.375" customWidth="1"/>
+    <col min="15" max="15" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -715,9 +762,10 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
-      <c r="N1" s="4"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -749,19 +797,22 @@
         <v>28</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -792,24 +843,28 @@
       <c r="J3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>